--- a/xlsx/波特维尔 (加利福尼亚州)_intext.xlsx
+++ b/xlsx/波特维尔 (加利福尼亚州)_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>波特维尔 (加利福尼亚州)</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>政策_政策_加州_波特维尔 (加利福尼亚州)</t>
@@ -35,25 +35,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>美利堅合眾國</t>
+    <t>美利坚合众国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>加利福尼亞州行政區劃</t>
+    <t>加利福尼亚州行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E8%8E%B1%E9%87%8C%E5%8E%BF</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%A8%99%E6%BA%96%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>太平洋標準時間</t>
+    <t>太平洋标准时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC-8</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%97%A5%E5%85%89%E7%AF%80%E7%B4%84%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>太平洋日光節約時間</t>
+    <t>太平洋日光节约时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC-7</t>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
@@ -890,7 +887,7 @@
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
         <v>10</v>
@@ -916,10 +913,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
